--- a/biology/Médecine/1237_en_santé_et_médecine/1237_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1237_en_santé_et_médecine/1237_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1237_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1237_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1237 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1237_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1237_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9 février : à l'initiative de Robert, frère de l'ordre du Saint-Esprit, Mathieu II, duc de Lorraine, fonde un hôpital à Neufchâteau[1].
-15 juin : épidémie de danse de Saint-Guy à Erfurt, en Thuringe[2].
-Jeanne de Constantinople fonde, à Lille, l'hôpital Notre-Dame, devenu hospice Comtesse[3].
-Ordonnances de l'empereur Frédéric II, qui posent les fondements de la faculté de médecine de Salerne et réglementent l'exercice de la médecine, de la chirurgie et de la pharmacie à Naples et Salerne[4].
-Fondation d'un hospice d'aliénés à Gand[5].
-Fondation d'un hôpital San Lazaro à Cacabelos, dans le León en Espagne[6].
-L'ancienne maison-Dieu de Troissy, fondée en 1209 et érigée en abbaye de l'Amour-Dieu en 1232, est confiée par le pape Grégoire IX aux moniales cisterciennes[7].
-Première mention à Bonneville, en Normandie, d'une léproserie qui sera encore attestée dans un pouillé de 1738[8].
-La léproserie de La Chaumette est attestée à Saint-Leu, dans la vallée de Montmorency, par un legs de Bouchard VI, seigneur du lieu[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9 février : à l'initiative de Robert, frère de l'ordre du Saint-Esprit, Mathieu II, duc de Lorraine, fonde un hôpital à Neufchâteau.
+15 juin : épidémie de danse de Saint-Guy à Erfurt, en Thuringe.
+Jeanne de Constantinople fonde, à Lille, l'hôpital Notre-Dame, devenu hospice Comtesse.
+Ordonnances de l'empereur Frédéric II, qui posent les fondements de la faculté de médecine de Salerne et réglementent l'exercice de la médecine, de la chirurgie et de la pharmacie à Naples et Salerne.
+Fondation d'un hospice d'aliénés à Gand.
+Fondation d'un hôpital San Lazaro à Cacabelos, dans le León en Espagne.
+L'ancienne maison-Dieu de Troissy, fondée en 1209 et érigée en abbaye de l'Amour-Dieu en 1232, est confiée par le pape Grégoire IX aux moniales cisterciennes.
+Première mention à Bonneville, en Normandie, d'une léproserie qui sera encore attestée dans un pouillé de 1738.
+La léproserie de La Chaumette est attestée à Saint-Leu, dans la vallée de Montmorency, par un legs de Bouchard VI, seigneur du lieu.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1237_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1237_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médecin Chen Ziming achève la rédaction du premier traité chinois d'obstétrique et de gynécologie, le Fu Ren Da Quan Liang Fang (« Recueil complet des prescriptions utiles aux femmes[10] »).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médecin Chen Ziming achève la rédaction du premier traité chinois d'obstétrique et de gynécologie, le Fu Ren Da Quan Liang Fang (« Recueil complet des prescriptions utiles aux femmes »).
 </t>
         </is>
       </c>
